--- a/37-Item Crafting System 合成系统.xlsx
+++ b/37-Item Crafting System 合成系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -855,6 +855,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Batch-Related Notetags  </t>
     </r>
     <r>
@@ -977,7 +985,39 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-如果不使用数量quantity，则数量默认为1</t>
+如果不使用数量quantity，则数量默认为1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>物品不能添加自身。即：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8号道具不能给予8号道具
+“超级药水”不能给予“超级药水”</t>
     </r>
   </si>
   <si>
@@ -1494,6 +1534,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1514,12 +1561,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF0070C0"/>
@@ -1536,8 +1577,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2016,7 +2056,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2067,9 +2107,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2445,17 +2482,17 @@
       </c>
     </row>
     <row r="2" ht="27" spans="2:2">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="27" spans="2:2">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="2:2">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2500,12 +2537,12 @@
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" ht="67.5" spans="2:2">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2520,7 +2557,7 @@
   <sheetPr/>
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -2712,22 +2749,22 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" ht="315" spans="1:4">
-      <c r="A29" s="17" t="s">
+    <row r="29" ht="369" spans="1:4">
+      <c r="A29" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>50</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="18" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="19"/>
+      <c r="D30" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2810,8 +2847,8 @@
   <sheetPr/>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
